--- a/state_results/Rivers/KumetiatTeRehunga_ca3813f8c6.xlsx
+++ b/state_results/Rivers/KumetiatTeRehunga_ca3813f8c6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U229"/>
+  <dimension ref="A1:U250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0119254834095704</v>
+        <v>0.0119280742037231</v>
       </c>
       <c r="H2" t="n">
         <v>0.021</v>
@@ -651,7 +651,7 @@
         <v>0.012</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0119254834095704</v>
+        <v>0.0119280742037231</v>
       </c>
       <c r="H3" t="n">
         <v>0.021</v>
@@ -1072,7 +1072,7 @@
         <v>0.00294</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0038898166847953</v>
+        <v>0.0039049911997414</v>
       </c>
       <c r="H8" t="n">
         <v>0.0193021408714764</v>
@@ -1086,7 +1086,7 @@
         <v>0.00307</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00589</v>
+        <v>0.00603</v>
       </c>
       <c r="N8" t="n">
         <v>0.00851</v>
@@ -1153,7 +1153,7 @@
         <v>0.00294</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0038898166847953</v>
+        <v>0.0039049911997414</v>
       </c>
       <c r="H9" t="n">
         <v>0.0193021408714764</v>
@@ -1167,7 +1167,7 @@
         <v>0.00307</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00589</v>
+        <v>0.00603</v>
       </c>
       <c r="N9" t="n">
         <v>0.00851</v>
@@ -1230,10 +1230,10 @@
         <v>0.5375</v>
       </c>
       <c r="G10" t="n">
-        <v>0.559666666666667</v>
+        <v>0.559633333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1.002</v>
+        <v>1.0015</v>
       </c>
       <c r="I10" t="n">
         <v>0.996</v>
@@ -1307,10 +1307,10 @@
         <v>0.5375</v>
       </c>
       <c r="G11" t="n">
-        <v>0.559666666666667</v>
+        <v>0.559633333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1.002</v>
+        <v>1.0015</v>
       </c>
       <c r="I11" t="n">
         <v>0.996</v>
@@ -1384,7 +1384,7 @@
         <v>0.02025</v>
       </c>
       <c r="G12" t="n">
-        <v>0.129448743295611</v>
+        <v>0.129457530583877</v>
       </c>
       <c r="H12" t="n">
         <v>2.02</v>
@@ -1461,7 +1461,7 @@
         <v>0.02025</v>
       </c>
       <c r="G13" t="n">
-        <v>0.129448743295611</v>
+        <v>0.129457530583877</v>
       </c>
       <c r="H13" t="n">
         <v>2.02</v>
@@ -1542,13 +1542,13 @@
         <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>2.96613963050107</v>
+        <v>3.27288535830133</v>
       </c>
       <c r="H14" t="n">
-        <v>8.197749087126761</v>
+        <v>10.5962587564386</v>
       </c>
       <c r="I14" t="n">
-        <v>7.78333</v>
+        <v>9.933680000000001</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1556,10 +1556,10 @@
         <v>1.55</v>
       </c>
       <c r="M14" t="n">
-        <v>5.92051</v>
+        <v>6.61742</v>
       </c>
       <c r="N14" t="n">
-        <v>7.34792</v>
+        <v>8.608599999999999</v>
       </c>
       <c r="O14" t="n">
         <v>1856406</v>
@@ -1623,7 +1623,7 @@
         <v>0.0105</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0112191125571778</v>
+        <v>0.0112210556527923</v>
       </c>
       <c r="H15" t="n">
         <v>0.021</v>
@@ -1704,7 +1704,7 @@
         <v>0.0105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0112191125571778</v>
+        <v>0.0112210556527923</v>
       </c>
       <c r="H16" t="n">
         <v>0.021</v>
@@ -2125,7 +2125,7 @@
         <v>0.00398</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0084809933631056</v>
+        <v>0.00849194967124</v>
       </c>
       <c r="H21" t="n">
         <v>0.119115308413738</v>
@@ -2206,7 +2206,7 @@
         <v>0.00398</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0084809933631056</v>
+        <v>0.00849194967124</v>
       </c>
       <c r="H22" t="n">
         <v>0.119115308413738</v>
@@ -2445,13 +2445,13 @@
         <v>0.537</v>
       </c>
       <c r="G25" t="n">
-        <v>0.564675</v>
+        <v>0.56465</v>
       </c>
       <c r="H25" t="n">
         <v>1.31</v>
       </c>
       <c r="I25" t="n">
-        <v>0.999</v>
+        <v>0.99875</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -2522,13 +2522,13 @@
         <v>0.537</v>
       </c>
       <c r="G26" t="n">
-        <v>0.564675</v>
+        <v>0.56465</v>
       </c>
       <c r="H26" t="n">
         <v>1.31</v>
       </c>
       <c r="I26" t="n">
-        <v>0.999</v>
+        <v>0.99875</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2599,7 +2599,7 @@
         <v>0.017</v>
       </c>
       <c r="G27" t="n">
-        <v>0.100127546897877</v>
+        <v>0.100141227576294</v>
       </c>
       <c r="H27" t="n">
         <v>2.02</v>
@@ -2676,7 +2676,7 @@
         <v>0.017</v>
       </c>
       <c r="G28" t="n">
-        <v>0.100127546897877</v>
+        <v>0.100141227576294</v>
       </c>
       <c r="H28" t="n">
         <v>2.02</v>
@@ -2838,13 +2838,13 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2.62182067085796</v>
+        <v>2.85553170156292</v>
       </c>
       <c r="H30" t="n">
-        <v>8.197749087126761</v>
+        <v>10.5962587564386</v>
       </c>
       <c r="I30" t="n">
-        <v>7.56674</v>
+        <v>9.197520000000001</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2855,7 +2855,7 @@
         <v>4.592</v>
       </c>
       <c r="N30" t="n">
-        <v>6.74074</v>
+        <v>8.608599999999999</v>
       </c>
       <c r="O30" t="n">
         <v>1856406</v>
@@ -2919,7 +2919,7 @@
         <v>0.01</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0105955520639665</v>
+        <v>0.0105984218654861</v>
       </c>
       <c r="H31" t="n">
         <v>0.021</v>
@@ -3000,7 +3000,7 @@
         <v>0.01</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0105955520639665</v>
+        <v>0.0105984218654861</v>
       </c>
       <c r="H32" t="n">
         <v>0.021</v>
@@ -3421,7 +3421,7 @@
         <v>0.00331</v>
       </c>
       <c r="G37" t="n">
-        <v>0.007856164384307101</v>
+        <v>0.0078645923136412</v>
       </c>
       <c r="H37" t="n">
         <v>0.119115308413738</v>
@@ -3502,7 +3502,7 @@
         <v>0.00331</v>
       </c>
       <c r="G38" t="n">
-        <v>0.007856164384307101</v>
+        <v>0.0078645923136412</v>
       </c>
       <c r="H38" t="n">
         <v>0.119115308413738</v>
@@ -3741,24 +3741,24 @@
         <v>0.519</v>
       </c>
       <c r="G41" t="n">
-        <v>0.569480769230769</v>
+        <v>0.56945</v>
       </c>
       <c r="H41" t="n">
         <v>1.31</v>
       </c>
       <c r="I41" t="n">
-        <v>1.1028</v>
+        <v>1.10275</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.442</v>
+        <v>0.4415</v>
       </c>
       <c r="M41" t="n">
         <v>0.93432</v>
       </c>
       <c r="N41" t="n">
-        <v>0.99804</v>
+        <v>0.99787</v>
       </c>
       <c r="O41" t="n">
         <v>1856406</v>
@@ -3818,24 +3818,24 @@
         <v>0.519</v>
       </c>
       <c r="G42" t="n">
-        <v>0.569480769230769</v>
+        <v>0.56945</v>
       </c>
       <c r="H42" t="n">
         <v>1.31</v>
       </c>
       <c r="I42" t="n">
-        <v>1.1028</v>
+        <v>1.10275</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.442</v>
+        <v>0.4415</v>
       </c>
       <c r="M42" t="n">
         <v>0.93432</v>
       </c>
       <c r="N42" t="n">
-        <v>0.99804</v>
+        <v>0.99787</v>
       </c>
       <c r="O42" t="n">
         <v>1856406</v>
@@ -4049,7 +4049,7 @@
         <v>0.017</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08134811299836731</v>
+        <v>0.0813586365971494</v>
       </c>
       <c r="H45" t="n">
         <v>2.02</v>
@@ -4126,7 +4126,7 @@
         <v>0.017</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08134811299836731</v>
+        <v>0.0813586365971494</v>
       </c>
       <c r="H46" t="n">
         <v>2.02</v>
@@ -4288,13 +4288,13 @@
         <v>1.9</v>
       </c>
       <c r="G48" t="n">
-        <v>2.38535542429548</v>
+        <v>2.40576811544408</v>
       </c>
       <c r="H48" t="n">
-        <v>8.197749087126761</v>
+        <v>10.0809113783277</v>
       </c>
       <c r="I48" t="n">
-        <v>7.73112</v>
+        <v>7.31453</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4302,10 +4302,10 @@
         <v>1.7</v>
       </c>
       <c r="M48" t="n">
-        <v>3.50752</v>
+        <v>3.75</v>
       </c>
       <c r="N48" t="n">
-        <v>6.55979</v>
+        <v>6.46041</v>
       </c>
       <c r="O48" t="n">
         <v>1856406</v>
@@ -4369,7 +4369,7 @@
         <v>0.01</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0103270466780389</v>
+        <v>0.0103296196035393</v>
       </c>
       <c r="H49" t="n">
         <v>0.021</v>
@@ -4450,7 +4450,7 @@
         <v>0.01</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0103270466780389</v>
+        <v>0.0103296196035393</v>
       </c>
       <c r="H50" t="n">
         <v>0.021</v>
@@ -4871,7 +4871,7 @@
         <v>0.00294</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0071301215593681</v>
+        <v>0.0071370760331356</v>
       </c>
       <c r="H55" t="n">
         <v>0.119115308413738</v>
@@ -4952,7 +4952,7 @@
         <v>0.00294</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0071301215593681</v>
+        <v>0.0071370760331356</v>
       </c>
       <c r="H56" t="n">
         <v>0.119115308413738</v>
@@ -5188,27 +5188,27 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.5635</v>
+        <v>0.56325</v>
       </c>
       <c r="G59" t="n">
-        <v>0.622793103448276</v>
+        <v>0.622737931034483</v>
       </c>
       <c r="H59" t="n">
-        <v>1.364</v>
+        <v>1.3637</v>
       </c>
       <c r="I59" t="n">
-        <v>1.2646</v>
+        <v>1.26442</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.463</v>
+        <v>0.4631</v>
       </c>
       <c r="M59" t="n">
-        <v>0.99028</v>
+        <v>0.99014</v>
       </c>
       <c r="N59" t="n">
-        <v>1.11344</v>
+        <v>1.11337</v>
       </c>
       <c r="O59" t="n">
         <v>1856406</v>
@@ -5265,27 +5265,27 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.5635</v>
+        <v>0.56325</v>
       </c>
       <c r="G60" t="n">
-        <v>0.622793103448276</v>
+        <v>0.622737931034483</v>
       </c>
       <c r="H60" t="n">
-        <v>1.364</v>
+        <v>1.3637</v>
       </c>
       <c r="I60" t="n">
-        <v>1.2646</v>
+        <v>1.26442</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.463</v>
+        <v>0.4631</v>
       </c>
       <c r="M60" t="n">
-        <v>0.99028</v>
+        <v>0.99014</v>
       </c>
       <c r="N60" t="n">
-        <v>1.11344</v>
+        <v>1.11337</v>
       </c>
       <c r="O60" t="n">
         <v>1856406</v>
@@ -5499,7 +5499,7 @@
         <v>0.017</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0836481357916396</v>
+        <v>0.0836575707422719</v>
       </c>
       <c r="H63" t="n">
         <v>2.02</v>
@@ -5576,7 +5576,7 @@
         <v>0.017</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0836481357916396</v>
+        <v>0.0836575707422719</v>
       </c>
       <c r="H64" t="n">
         <v>2.02</v>
@@ -5738,13 +5738,13 @@
         <v>1.95</v>
       </c>
       <c r="G66" t="n">
-        <v>2.33197767855252</v>
+        <v>2.24072471871616</v>
       </c>
       <c r="H66" t="n">
-        <v>8.197749087126761</v>
+        <v>8.60859542383607</v>
       </c>
       <c r="I66" t="n">
-        <v>7.19017</v>
+        <v>6.91995</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -5752,10 +5752,10 @@
         <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>3.35064</v>
+        <v>2.906</v>
       </c>
       <c r="N66" t="n">
-        <v>5.88233</v>
+        <v>5.13651</v>
       </c>
       <c r="O66" t="n">
         <v>1856406</v>
@@ -5819,7 +5819,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0095587916495975</v>
+        <v>0.009561320966191099</v>
       </c>
       <c r="H67" t="n">
         <v>0.02</v>
@@ -5900,7 +5900,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0095587916495975</v>
+        <v>0.009561320966191099</v>
       </c>
       <c r="H68" t="n">
         <v>0.02</v>
@@ -6321,7 +6321,7 @@
         <v>0.00223</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0067515582507353</v>
+        <v>0.0067533180217395</v>
       </c>
       <c r="H73" t="n">
         <v>0.119115308413738</v>
@@ -6402,7 +6402,7 @@
         <v>0.00223</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0067515582507353</v>
+        <v>0.0067533180217395</v>
       </c>
       <c r="H74" t="n">
         <v>0.119115308413738</v>
@@ -6641,13 +6641,13 @@
         <v>0.705</v>
       </c>
       <c r="G77" t="n">
-        <v>0.684983050847458</v>
+        <v>0.684935593220339</v>
       </c>
       <c r="H77" t="n">
-        <v>1.456</v>
+        <v>1.4557</v>
       </c>
       <c r="I77" t="n">
-        <v>1.30595</v>
+        <v>1.30582</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -6718,13 +6718,13 @@
         <v>0.705</v>
       </c>
       <c r="G78" t="n">
-        <v>0.684983050847458</v>
+        <v>0.684935593220339</v>
       </c>
       <c r="H78" t="n">
-        <v>1.456</v>
+        <v>1.4557</v>
       </c>
       <c r="I78" t="n">
-        <v>1.30595</v>
+        <v>1.30582</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -6949,7 +6949,7 @@
         <v>0.016</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0417218962019508</v>
+        <v>0.0417311712381655</v>
       </c>
       <c r="H81" t="n">
         <v>0.847</v>
@@ -7026,7 +7026,7 @@
         <v>0.016</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0417218962019508</v>
+        <v>0.0417311712381655</v>
       </c>
       <c r="H82" t="n">
         <v>0.847</v>
@@ -7265,24 +7265,24 @@
         <v>2.25</v>
       </c>
       <c r="G85" t="n">
-        <v>2.74306527656087</v>
+        <v>2.62478233884001</v>
       </c>
       <c r="H85" t="n">
-        <v>7.69927508506481</v>
+        <v>7.00577470311075</v>
       </c>
       <c r="I85" t="n">
-        <v>6.74273</v>
+        <v>6.10361</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>2.775</v>
+        <v>2.625</v>
       </c>
       <c r="M85" t="n">
-        <v>3.94545</v>
+        <v>3.89205</v>
       </c>
       <c r="N85" t="n">
-        <v>5.84073</v>
+        <v>5.44548</v>
       </c>
       <c r="O85" t="n">
         <v>1856406</v>
@@ -7346,7 +7346,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0095736521922566</v>
+        <v>0.009577882536518</v>
       </c>
       <c r="H86" t="n">
         <v>0.017</v>
@@ -7427,7 +7427,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0095736521922566</v>
+        <v>0.009577882536518</v>
       </c>
       <c r="H87" t="n">
         <v>0.017</v>
@@ -7922,10 +7922,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.00113</v>
+        <v>0.00115</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0057527920044736</v>
+        <v>0.0057566733887065</v>
       </c>
       <c r="H93" t="n">
         <v>0.119115308413738</v>
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.00113</v>
+        <v>0.00115</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0057527920044736</v>
+        <v>0.0057566733887065</v>
       </c>
       <c r="H94" t="n">
         <v>0.119115308413738</v>
@@ -8319,10 +8319,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.665</v>
+        <v>0.66495</v>
       </c>
       <c r="G98" t="n">
-        <v>0.697383333333333</v>
+        <v>0.697336666666667</v>
       </c>
       <c r="H98" t="n">
         <v>1.745</v>
@@ -8333,13 +8333,13 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.4595</v>
+        <v>0.4596</v>
       </c>
       <c r="M98" t="n">
-        <v>1.0883</v>
+        <v>1.08829</v>
       </c>
       <c r="N98" t="n">
-        <v>1.3478</v>
+        <v>1.34759</v>
       </c>
       <c r="O98" t="n">
         <v>1856406</v>
@@ -8396,10 +8396,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.665</v>
+        <v>0.66495</v>
       </c>
       <c r="G99" t="n">
-        <v>0.697383333333333</v>
+        <v>0.697336666666667</v>
       </c>
       <c r="H99" t="n">
         <v>1.745</v>
@@ -8410,13 +8410,13 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.4595</v>
+        <v>0.4596</v>
       </c>
       <c r="M99" t="n">
-        <v>1.0883</v>
+        <v>1.08829</v>
       </c>
       <c r="N99" t="n">
-        <v>1.3478</v>
+        <v>1.34759</v>
       </c>
       <c r="O99" t="n">
         <v>1856406</v>
@@ -8630,7 +8630,7 @@
         <v>0.0155</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0269606596174463</v>
+        <v>0.026965386425591</v>
       </c>
       <c r="H102" t="n">
         <v>0.478</v>
@@ -8707,7 +8707,7 @@
         <v>0.0155</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0269606596174463</v>
+        <v>0.026965386425591</v>
       </c>
       <c r="H103" t="n">
         <v>0.478</v>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -8943,27 +8943,27 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.625</v>
+        <v>2.56128</v>
       </c>
       <c r="G106" t="n">
-        <v>2.66580276522393</v>
+        <v>2.48130490496652</v>
       </c>
       <c r="H106" t="n">
-        <v>7.69927508506481</v>
+        <v>7.00577470311075</v>
       </c>
       <c r="I106" t="n">
-        <v>6.68542</v>
+        <v>5.50898</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>3.2</v>
+        <v>2.81</v>
       </c>
       <c r="M106" t="n">
-        <v>3.9</v>
+        <v>3.68942</v>
       </c>
       <c r="N106" t="n">
-        <v>5.50905</v>
+        <v>5.05629</v>
       </c>
       <c r="O106" t="n">
         <v>1856406</v>
@@ -9027,7 +9027,7 @@
         <v>0.0105</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0106903188589233</v>
+        <v>0.0106945492031847</v>
       </c>
       <c r="H107" t="n">
         <v>0.041</v>
@@ -9108,7 +9108,7 @@
         <v>0.0105</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0106903188589233</v>
+        <v>0.0106945492031847</v>
       </c>
       <c r="H108" t="n">
         <v>0.041</v>
@@ -9603,10 +9603,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.00112</v>
+        <v>0.00113</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0023990151824799</v>
+        <v>0.0024041738359538</v>
       </c>
       <c r="H114" t="n">
         <v>0.0465793785763697</v>
@@ -9684,10 +9684,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.00112</v>
+        <v>0.00113</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0023990151824799</v>
+        <v>0.0024041738359538</v>
       </c>
       <c r="H115" t="n">
         <v>0.0465793785763697</v>
@@ -10000,16 +10000,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.724</v>
+        <v>0.72385</v>
       </c>
       <c r="G119" t="n">
-        <v>0.76185</v>
+        <v>0.7618033333333331</v>
       </c>
       <c r="H119" t="n">
         <v>1.745</v>
       </c>
       <c r="I119" t="n">
-        <v>1.4455</v>
+        <v>1.44535</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -10020,7 +10020,7 @@
         <v>1.1965</v>
       </c>
       <c r="N119" t="n">
-        <v>1.3997</v>
+        <v>1.39961</v>
       </c>
       <c r="O119" t="n">
         <v>1856406</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.724</v>
+        <v>0.72385</v>
       </c>
       <c r="G120" t="n">
-        <v>0.76185</v>
+        <v>0.7618033333333331</v>
       </c>
       <c r="H120" t="n">
         <v>1.745</v>
       </c>
       <c r="I120" t="n">
-        <v>1.4455</v>
+        <v>1.44535</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -10097,7 +10097,7 @@
         <v>1.1965</v>
       </c>
       <c r="N120" t="n">
-        <v>1.3997</v>
+        <v>1.39961</v>
       </c>
       <c r="O120" t="n">
         <v>1856406</v>
@@ -10624,16 +10624,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.72</v>
+        <v>2.61711</v>
       </c>
       <c r="G127" t="n">
-        <v>2.66526742541495</v>
+        <v>2.40267848545672</v>
       </c>
       <c r="H127" t="n">
-        <v>7.69927508506481</v>
+        <v>7.00577470311075</v>
       </c>
       <c r="I127" t="n">
-        <v>6.57963</v>
+        <v>5.4737</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -10641,10 +10641,10 @@
         <v>2.89</v>
       </c>
       <c r="M127" t="n">
-        <v>3.94412</v>
+        <v>3.64881</v>
       </c>
       <c r="N127" t="n">
-        <v>5.47115</v>
+        <v>5.02432</v>
       </c>
       <c r="O127" t="n">
         <v>1856406</v>
@@ -10708,7 +10708,7 @@
         <v>0.012</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0114702487749376</v>
+        <v>0.0114732873549583</v>
       </c>
       <c r="H128" t="n">
         <v>0.041</v>
@@ -10789,7 +10789,7 @@
         <v>0.012</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0114702487749376</v>
+        <v>0.0114732873549583</v>
       </c>
       <c r="H129" t="n">
         <v>0.041</v>
@@ -11287,7 +11287,7 @@
         <v>0.0013</v>
       </c>
       <c r="G135" t="n">
-        <v>0.00192398625018</v>
+        <v>0.0019285431387306</v>
       </c>
       <c r="H135" t="n">
         <v>0.0135128177050661</v>
@@ -11298,10 +11298,10 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
-        <v>0.00105</v>
+        <v>0.00107</v>
       </c>
       <c r="M135" t="n">
-        <v>0.00271</v>
+        <v>0.0027</v>
       </c>
       <c r="N135" t="n">
         <v>0.00444</v>
@@ -11368,7 +11368,7 @@
         <v>0.0013</v>
       </c>
       <c r="G136" t="n">
-        <v>0.00192398625018</v>
+        <v>0.0019285431387306</v>
       </c>
       <c r="H136" t="n">
         <v>0.0135128177050661</v>
@@ -11379,10 +11379,10 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>0.00105</v>
+        <v>0.00107</v>
       </c>
       <c r="M136" t="n">
-        <v>0.00271</v>
+        <v>0.0027</v>
       </c>
       <c r="N136" t="n">
         <v>0.00444</v>
@@ -11684,13 +11684,13 @@
         <v>0.77</v>
       </c>
       <c r="G140" t="n">
-        <v>0.796416666666667</v>
+        <v>0.79638</v>
       </c>
       <c r="H140" t="n">
         <v>1.745</v>
       </c>
       <c r="I140" t="n">
-        <v>1.4455</v>
+        <v>1.44535</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -11701,7 +11701,7 @@
         <v>1.188</v>
       </c>
       <c r="N140" t="n">
-        <v>1.3997</v>
+        <v>1.39961</v>
       </c>
       <c r="O140" t="n">
         <v>1856406</v>
@@ -11761,13 +11761,13 @@
         <v>0.77</v>
       </c>
       <c r="G141" t="n">
-        <v>0.796416666666667</v>
+        <v>0.79638</v>
       </c>
       <c r="H141" t="n">
         <v>1.745</v>
       </c>
       <c r="I141" t="n">
-        <v>1.4455</v>
+        <v>1.44535</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -11778,7 +11778,7 @@
         <v>1.188</v>
       </c>
       <c r="N141" t="n">
-        <v>1.3997</v>
+        <v>1.39961</v>
       </c>
       <c r="O141" t="n">
         <v>1856406</v>
@@ -12305,27 +12305,27 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="G148" t="n">
-        <v>3.14018464729567</v>
+        <v>2.95516269166069</v>
       </c>
       <c r="H148" t="n">
-        <v>13.2450287853687</v>
+        <v>10.5946483782845</v>
       </c>
       <c r="I148" t="n">
-        <v>6.88601</v>
+        <v>7.79044</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>3</v>
+        <v>3.06878</v>
       </c>
       <c r="M148" t="n">
-        <v>4.78996</v>
+        <v>3.8995</v>
       </c>
       <c r="N148" t="n">
-        <v>5.64864</v>
+        <v>6.60687</v>
       </c>
       <c r="O148" t="n">
         <v>1856406</v>
@@ -12389,7 +12389,7 @@
         <v>0.012</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0117869154416043</v>
+        <v>0.011789954021625</v>
       </c>
       <c r="H149" t="n">
         <v>0.041</v>
@@ -12470,7 +12470,7 @@
         <v>0.012</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0117869154416043</v>
+        <v>0.011789954021625</v>
       </c>
       <c r="H150" t="n">
         <v>0.041</v>
@@ -12968,24 +12968,24 @@
         <v>0.00163</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0031744264871702</v>
+        <v>0.00317606634105</v>
       </c>
       <c r="H156" t="n">
         <v>0.0364928168689421</v>
       </c>
       <c r="I156" t="n">
-        <v>0.00924</v>
+        <v>0.00923</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.00163</v>
+        <v>0.00164</v>
       </c>
       <c r="M156" t="n">
         <v>0.00502</v>
       </c>
       <c r="N156" t="n">
-        <v>0.00821</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="O156" t="n">
         <v>1856406</v>
@@ -13049,24 +13049,24 @@
         <v>0.00163</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0031744264871702</v>
+        <v>0.00317606634105</v>
       </c>
       <c r="H157" t="n">
         <v>0.0364928168689421</v>
       </c>
       <c r="I157" t="n">
-        <v>0.00924</v>
+        <v>0.00923</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.00163</v>
+        <v>0.00164</v>
       </c>
       <c r="M157" t="n">
         <v>0.00502</v>
       </c>
       <c r="N157" t="n">
-        <v>0.00821</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="O157" t="n">
         <v>1856406</v>
@@ -13365,13 +13365,13 @@
         <v>0.735</v>
       </c>
       <c r="G161" t="n">
-        <v>0.7983</v>
+        <v>0.798298333333333</v>
       </c>
       <c r="H161" t="n">
         <v>1.745</v>
       </c>
       <c r="I161" t="n">
-        <v>1.4455</v>
+        <v>1.44535</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -13442,13 +13442,13 @@
         <v>0.735</v>
       </c>
       <c r="G162" t="n">
-        <v>0.7983</v>
+        <v>0.798298333333333</v>
       </c>
       <c r="H162" t="n">
         <v>1.745</v>
       </c>
       <c r="I162" t="n">
-        <v>1.4455</v>
+        <v>1.44535</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -13986,27 +13986,27 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="G169" t="n">
-        <v>3.20568723967704</v>
+        <v>3.20849889250212</v>
       </c>
       <c r="H169" t="n">
-        <v>13.2450287853687</v>
+        <v>10.5946483782845</v>
       </c>
       <c r="I169" t="n">
-        <v>6.42042</v>
+        <v>8.49741</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>3</v>
+        <v>3.06878</v>
       </c>
       <c r="M169" t="n">
-        <v>4.79057</v>
+        <v>4.96562</v>
       </c>
       <c r="N169" t="n">
-        <v>5.61532</v>
+        <v>8.13344</v>
       </c>
       <c r="O169" t="n">
         <v>1856406</v>
@@ -14070,7 +14070,7 @@
         <v>0.012</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0117155072287501</v>
+        <v>0.0117185973101271</v>
       </c>
       <c r="H170" t="n">
         <v>0.041</v>
@@ -14151,7 +14151,7 @@
         <v>0.012</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0117155072287501</v>
+        <v>0.0117185973101271</v>
       </c>
       <c r="H171" t="n">
         <v>0.041</v>
@@ -14649,13 +14649,13 @@
         <v>0.00217</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0035477954779554</v>
+        <v>0.0035480838659845</v>
       </c>
       <c r="H177" t="n">
         <v>0.0364928168689421</v>
       </c>
       <c r="I177" t="n">
-        <v>0.00929</v>
+        <v>0.00928</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -14663,10 +14663,10 @@
         <v>0.00206</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0053</v>
+        <v>0.00529</v>
       </c>
       <c r="N177" t="n">
-        <v>0.00728</v>
+        <v>0.00725</v>
       </c>
       <c r="O177" t="n">
         <v>1856406</v>
@@ -14730,13 +14730,13 @@
         <v>0.00217</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0035477954779554</v>
+        <v>0.0035480838659845</v>
       </c>
       <c r="H178" t="n">
         <v>0.0364928168689421</v>
       </c>
       <c r="I178" t="n">
-        <v>0.00929</v>
+        <v>0.00928</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -14744,10 +14744,10 @@
         <v>0.00206</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0053</v>
+        <v>0.00529</v>
       </c>
       <c r="N178" t="n">
-        <v>0.00728</v>
+        <v>0.00725</v>
       </c>
       <c r="O178" t="n">
         <v>1856406</v>
@@ -15046,10 +15046,10 @@
         <v>0.745</v>
       </c>
       <c r="G182" t="n">
-        <v>0.874915254237288</v>
+        <v>0.874923728813559</v>
       </c>
       <c r="H182" t="n">
-        <v>2.22</v>
+        <v>2.2205</v>
       </c>
       <c r="I182" t="n">
         <v>1.72025</v>
@@ -15123,10 +15123,10 @@
         <v>0.745</v>
       </c>
       <c r="G183" t="n">
-        <v>0.874915254237288</v>
+        <v>0.874923728813559</v>
       </c>
       <c r="H183" t="n">
-        <v>2.22</v>
+        <v>2.2205</v>
       </c>
       <c r="I183" t="n">
         <v>1.72025</v>
@@ -15667,27 +15667,27 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G190" t="n">
-        <v>3.35954951954361</v>
+        <v>3.48282528211443</v>
       </c>
       <c r="H190" t="n">
-        <v>13.2450287853687</v>
+        <v>10.5946483782845</v>
       </c>
       <c r="I190" t="n">
-        <v>8.29311</v>
+        <v>8.663690000000001</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>3.5</v>
+        <v>3.24936</v>
       </c>
       <c r="M190" t="n">
-        <v>4.93721</v>
+        <v>6.63973</v>
       </c>
       <c r="N190" t="n">
-        <v>7.40355</v>
+        <v>8.23433</v>
       </c>
       <c r="O190" t="n">
         <v>1856406</v>
@@ -16330,13 +16330,13 @@
         <v>0.00337</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0044589394457083</v>
+        <v>0.0044562033854473</v>
       </c>
       <c r="H198" t="n">
         <v>0.0364928168689421</v>
       </c>
       <c r="I198" t="n">
-        <v>0.0094</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -16344,10 +16344,10 @@
         <v>0.00302</v>
       </c>
       <c r="M198" t="n">
-        <v>0.00567</v>
+        <v>0.00565</v>
       </c>
       <c r="N198" t="n">
-        <v>0.00912</v>
+        <v>0.0091</v>
       </c>
       <c r="O198" t="n">
         <v>1856406</v>
@@ -16411,13 +16411,13 @@
         <v>0.00337</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0044589394457083</v>
+        <v>0.0044562033854473</v>
       </c>
       <c r="H199" t="n">
         <v>0.0364928168689421</v>
       </c>
       <c r="I199" t="n">
-        <v>0.0094</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -16425,10 +16425,10 @@
         <v>0.00302</v>
       </c>
       <c r="M199" t="n">
-        <v>0.00567</v>
+        <v>0.00565</v>
       </c>
       <c r="N199" t="n">
-        <v>0.00912</v>
+        <v>0.0091</v>
       </c>
       <c r="O199" t="n">
         <v>1856406</v>
@@ -17334,7 +17334,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -17348,27 +17348,27 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="G211" t="n">
-        <v>3.55593997497645</v>
+        <v>3.71302168633593</v>
       </c>
       <c r="H211" t="n">
-        <v>13.2450287853687</v>
+        <v>10.5946483782845</v>
       </c>
       <c r="I211" t="n">
-        <v>8.551019999999999</v>
+        <v>8.681039999999999</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>2.975</v>
+        <v>3.03439</v>
       </c>
       <c r="M211" t="n">
-        <v>5.527</v>
+        <v>7.08769</v>
       </c>
       <c r="N211" t="n">
-        <v>7.9481</v>
+        <v>8.363849999999999</v>
       </c>
       <c r="O211" t="n">
         <v>1856406</v>
@@ -17594,7 +17594,7 @@
         <v>130</v>
       </c>
       <c r="G214" t="n">
-        <v>448.69356228348</v>
+        <v>448.68624702043</v>
       </c>
       <c r="H214" t="n">
         <v>4500</v>
@@ -17679,7 +17679,7 @@
         <v>130</v>
       </c>
       <c r="G215" t="n">
-        <v>448.69356228348</v>
+        <v>448.68624702043</v>
       </c>
       <c r="H215" t="n">
         <v>4500</v>
@@ -17764,7 +17764,7 @@
         <v>130</v>
       </c>
       <c r="G216" t="n">
-        <v>448.69356228348</v>
+        <v>448.68624702043</v>
       </c>
       <c r="H216" t="n">
         <v>4500</v>
@@ -17849,7 +17849,7 @@
         <v>130</v>
       </c>
       <c r="G217" t="n">
-        <v>448.69356228348</v>
+        <v>448.68624702043</v>
       </c>
       <c r="H217" t="n">
         <v>4500</v>
@@ -18011,7 +18011,7 @@
         <v>0.00406</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0052746304747023</v>
+        <v>0.0052704245586131</v>
       </c>
       <c r="H219" t="n">
         <v>0.0364928168689421</v>
@@ -18028,7 +18028,7 @@
         <v>0.00684</v>
       </c>
       <c r="N219" t="n">
-        <v>0.00937</v>
+        <v>0.00936</v>
       </c>
       <c r="O219" t="n">
         <v>1856406</v>
@@ -18092,7 +18092,7 @@
         <v>0.00406</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0052746304747023</v>
+        <v>0.0052704245586131</v>
       </c>
       <c r="H220" t="n">
         <v>0.0364928168689421</v>
@@ -18109,7 +18109,7 @@
         <v>0.00684</v>
       </c>
       <c r="N220" t="n">
-        <v>0.00937</v>
+        <v>0.00936</v>
       </c>
       <c r="O220" t="n">
         <v>1856406</v>
@@ -18844,6 +18844,1687 @@
         </is>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.3916</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.47715</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>6.53360401420315</v>
+      </c>
+      <c r="H231" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="I231" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>7</v>
+      </c>
+      <c r="M231" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="N231" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G232" t="n">
+        <v>4.25975780506607</v>
+      </c>
+      <c r="H232" t="n">
+        <v>10.5946483782845</v>
+      </c>
+      <c r="I232" t="n">
+        <v>9.4765</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M232" t="n">
+        <v>7.75923</v>
+      </c>
+      <c r="N232" t="n">
+        <v>8.61769</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.0111034482758621</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.01464</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.0111034482758621</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.01464</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>125</v>
+      </c>
+      <c r="G235" t="n">
+        <v>437.462109089395</v>
+      </c>
+      <c r="H235" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I235" t="n">
+        <v>2436.4</v>
+      </c>
+      <c r="J235" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K235" t="n">
+        <v>29.3103448275862</v>
+      </c>
+      <c r="L235" t="n">
+        <v>230</v>
+      </c>
+      <c r="M235" t="n">
+        <v>659.6</v>
+      </c>
+      <c r="N235" t="n">
+        <v>1608.12</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>125</v>
+      </c>
+      <c r="G236" t="n">
+        <v>437.462109089395</v>
+      </c>
+      <c r="H236" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I236" t="n">
+        <v>2436.4</v>
+      </c>
+      <c r="J236" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K236" t="n">
+        <v>29.3103448275862</v>
+      </c>
+      <c r="L236" t="n">
+        <v>230</v>
+      </c>
+      <c r="M236" t="n">
+        <v>659.6</v>
+      </c>
+      <c r="N236" t="n">
+        <v>1608.12</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>125</v>
+      </c>
+      <c r="G237" t="n">
+        <v>437.462109089395</v>
+      </c>
+      <c r="H237" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I237" t="n">
+        <v>2436.4</v>
+      </c>
+      <c r="J237" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K237" t="n">
+        <v>29.3103448275862</v>
+      </c>
+      <c r="L237" t="n">
+        <v>230</v>
+      </c>
+      <c r="M237" t="n">
+        <v>659.6</v>
+      </c>
+      <c r="N237" t="n">
+        <v>1608.12</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>125</v>
+      </c>
+      <c r="G238" t="n">
+        <v>437.462109089395</v>
+      </c>
+      <c r="H238" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I238" t="n">
+        <v>2436.4</v>
+      </c>
+      <c r="J238" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K238" t="n">
+        <v>29.3103448275862</v>
+      </c>
+      <c r="L238" t="n">
+        <v>230</v>
+      </c>
+      <c r="M238" t="n">
+        <v>659.6</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1608.12</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>105</v>
+      </c>
+      <c r="G239" t="n">
+        <v>103.706</v>
+      </c>
+      <c r="H239" t="n">
+        <v>111</v>
+      </c>
+      <c r="I239" t="n">
+        <v>111</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>105</v>
+      </c>
+      <c r="M239" t="n">
+        <v>110.65</v>
+      </c>
+      <c r="N239" t="n">
+        <v>111</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0.00406</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.0050362002253824</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.0364928168689421</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.01078</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>0.00384</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.00673</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.00915</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0.00406</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.0050362002253824</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.0364928168689421</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.01078</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>0.00384</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.00673</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.00915</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1.04056896551724</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I242" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1.4956</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1.8458</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1.04056896551724</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I243" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1.4956</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1.8458</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>4.591</v>
+      </c>
+      <c r="G244" t="n">
+        <v>5.2364</v>
+      </c>
+      <c r="H244" t="n">
+        <v>7.021</v>
+      </c>
+      <c r="I244" t="n">
+        <v>7.021</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>4.591</v>
+      </c>
+      <c r="M244" t="n">
+        <v>6.85265</v>
+      </c>
+      <c r="N244" t="n">
+        <v>7.021</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.9195</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1.04927586206897</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2.648</v>
+      </c>
+      <c r="I245" t="n">
+        <v>2.1811</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1.50096</v>
+      </c>
+      <c r="N245" t="n">
+        <v>1.8492</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.9195</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1.04927586206897</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2.648</v>
+      </c>
+      <c r="I246" t="n">
+        <v>2.1811</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1.50096</v>
+      </c>
+      <c r="N246" t="n">
+        <v>1.8492</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1.09810344827586</v>
+      </c>
+      <c r="H247" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I247" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1.5328</v>
+      </c>
+      <c r="N247" t="n">
+        <v>1.8886</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1.09810344827586</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I248" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1.5328</v>
+      </c>
+      <c r="N248" t="n">
+        <v>1.8886</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.0182413793103448</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.0406</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.03374</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.0182413793103448</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.0406</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.03374</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/KumetiatTeRehunga_ca3813f8c6.xlsx
+++ b/state_results/Rivers/KumetiatTeRehunga_ca3813f8c6.xlsx
@@ -1542,13 +1542,13 @@
         <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.27288535830133</v>
+        <v>3.1119070566617</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5962587564386</v>
+        <v>9.371779750647219</v>
       </c>
       <c r="I14" t="n">
-        <v>9.933680000000001</v>
+        <v>8.91572</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1556,10 +1556,10 @@
         <v>1.55</v>
       </c>
       <c r="M14" t="n">
-        <v>6.61742</v>
+        <v>6.08536</v>
       </c>
       <c r="N14" t="n">
-        <v>8.608599999999999</v>
+        <v>8.41832</v>
       </c>
       <c r="O14" t="n">
         <v>1856406</v>
@@ -2838,13 +2838,13 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2.85553170156292</v>
+        <v>2.73288156698034</v>
       </c>
       <c r="H30" t="n">
-        <v>10.5962587564386</v>
+        <v>9.371779750647219</v>
       </c>
       <c r="I30" t="n">
-        <v>9.197520000000001</v>
+        <v>8.6981</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2852,10 +2852,10 @@
         <v>1.7</v>
       </c>
       <c r="M30" t="n">
-        <v>4.592</v>
+        <v>4.69206</v>
       </c>
       <c r="N30" t="n">
-        <v>8.608599999999999</v>
+        <v>7.00917</v>
       </c>
       <c r="O30" t="n">
         <v>1856406</v>
@@ -4288,13 +4288,13 @@
         <v>1.9</v>
       </c>
       <c r="G48" t="n">
-        <v>2.40576811544408</v>
+        <v>2.45317359425894</v>
       </c>
       <c r="H48" t="n">
-        <v>10.0809113783277</v>
+        <v>9.371779750647219</v>
       </c>
       <c r="I48" t="n">
-        <v>7.31453</v>
+        <v>7.31174</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4302,10 +4302,10 @@
         <v>1.7</v>
       </c>
       <c r="M48" t="n">
-        <v>3.75</v>
+        <v>4.33039</v>
       </c>
       <c r="N48" t="n">
-        <v>6.46041</v>
+        <v>6.00082</v>
       </c>
       <c r="O48" t="n">
         <v>1856406</v>
@@ -5735,16 +5735,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>2.24072471871616</v>
+        <v>2.44678877420676</v>
       </c>
       <c r="H66" t="n">
-        <v>8.60859542383607</v>
+        <v>9.371779750647219</v>
       </c>
       <c r="I66" t="n">
-        <v>6.91995</v>
+        <v>7.00586</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -5752,10 +5752,10 @@
         <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>2.906</v>
+        <v>3.22413</v>
       </c>
       <c r="N66" t="n">
-        <v>5.13651</v>
+        <v>6.01644</v>
       </c>
       <c r="O66" t="n">
         <v>1856406</v>
@@ -7262,27 +7262,27 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.25</v>
+        <v>2.425</v>
       </c>
       <c r="G85" t="n">
-        <v>2.62478233884001</v>
+        <v>2.6528426017356</v>
       </c>
       <c r="H85" t="n">
-        <v>7.00577470311075</v>
+        <v>8.95924028267973</v>
       </c>
       <c r="I85" t="n">
-        <v>6.10361</v>
+        <v>6.05753</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>2.625</v>
+        <v>2.75905</v>
       </c>
       <c r="M85" t="n">
-        <v>3.89205</v>
+        <v>3.8808</v>
       </c>
       <c r="N85" t="n">
-        <v>5.44548</v>
+        <v>5.34504</v>
       </c>
       <c r="O85" t="n">
         <v>1856406</v>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -8943,27 +8943,27 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.56128</v>
+        <v>2.625</v>
       </c>
       <c r="G106" t="n">
-        <v>2.48130490496652</v>
+        <v>2.65532471661212</v>
       </c>
       <c r="H106" t="n">
-        <v>7.00577470311075</v>
+        <v>12.0421614173056</v>
       </c>
       <c r="I106" t="n">
-        <v>5.50898</v>
+        <v>6.02974</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>2.81</v>
+        <v>2.79405</v>
       </c>
       <c r="M106" t="n">
-        <v>3.68942</v>
+        <v>3.84</v>
       </c>
       <c r="N106" t="n">
-        <v>5.05629</v>
+        <v>5.30944</v>
       </c>
       <c r="O106" t="n">
         <v>1856406</v>
@@ -10624,27 +10624,27 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.61711</v>
+        <v>2.72</v>
       </c>
       <c r="G127" t="n">
-        <v>2.40267848545672</v>
+        <v>2.66110560752755</v>
       </c>
       <c r="H127" t="n">
-        <v>7.00577470311075</v>
+        <v>12.0421614173056</v>
       </c>
       <c r="I127" t="n">
-        <v>5.4737</v>
+        <v>5.99863</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>2.89</v>
+        <v>2.87405</v>
       </c>
       <c r="M127" t="n">
-        <v>3.64881</v>
+        <v>3.98034</v>
       </c>
       <c r="N127" t="n">
-        <v>5.02432</v>
+        <v>5.48528</v>
       </c>
       <c r="O127" t="n">
         <v>1856406</v>
@@ -12305,27 +12305,27 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.76</v>
+        <v>2.84386</v>
       </c>
       <c r="G148" t="n">
-        <v>2.95516269166069</v>
+        <v>2.94950920006125</v>
       </c>
       <c r="H148" t="n">
-        <v>10.5946483782845</v>
+        <v>12.0421614173056</v>
       </c>
       <c r="I148" t="n">
-        <v>7.79044</v>
+        <v>6.30693</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>3.06878</v>
+        <v>2.88</v>
       </c>
       <c r="M148" t="n">
-        <v>3.8995</v>
+        <v>4.13827</v>
       </c>
       <c r="N148" t="n">
-        <v>6.60687</v>
+        <v>6.03252</v>
       </c>
       <c r="O148" t="n">
         <v>1856406</v>
@@ -13986,27 +13986,27 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2.8</v>
+        <v>2.83453</v>
       </c>
       <c r="G169" t="n">
-        <v>3.20849889250212</v>
+        <v>2.9920090168361</v>
       </c>
       <c r="H169" t="n">
-        <v>10.5946483782845</v>
+        <v>12.0421614173056</v>
       </c>
       <c r="I169" t="n">
-        <v>8.49741</v>
+        <v>6.20429</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>3.06878</v>
+        <v>2.88</v>
       </c>
       <c r="M169" t="n">
-        <v>4.96562</v>
+        <v>4.1599</v>
       </c>
       <c r="N169" t="n">
-        <v>8.13344</v>
+        <v>5.66768</v>
       </c>
       <c r="O169" t="n">
         <v>1856406</v>
@@ -15667,27 +15667,27 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G190" t="n">
-        <v>3.48282528211443</v>
+        <v>3.25044644663913</v>
       </c>
       <c r="H190" t="n">
-        <v>10.5946483782845</v>
+        <v>12.0421614173056</v>
       </c>
       <c r="I190" t="n">
-        <v>8.663690000000001</v>
+        <v>7.05931</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>3.24936</v>
+        <v>3.5</v>
       </c>
       <c r="M190" t="n">
-        <v>6.63973</v>
+        <v>5.08838</v>
       </c>
       <c r="N190" t="n">
-        <v>8.23433</v>
+        <v>6.37453</v>
       </c>
       <c r="O190" t="n">
         <v>1856406</v>
@@ -17334,7 +17334,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -17348,27 +17348,27 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="G211" t="n">
-        <v>3.71302168633593</v>
+        <v>3.31077239988742</v>
       </c>
       <c r="H211" t="n">
-        <v>10.5946483782845</v>
+        <v>10.0152515156881</v>
       </c>
       <c r="I211" t="n">
-        <v>8.681039999999999</v>
+        <v>7.22184</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>3.03439</v>
+        <v>3.25</v>
       </c>
       <c r="M211" t="n">
-        <v>7.08769</v>
+        <v>5.65508</v>
       </c>
       <c r="N211" t="n">
-        <v>8.363849999999999</v>
+        <v>6.4013</v>
       </c>
       <c r="O211" t="n">
         <v>1856406</v>
@@ -19032,13 +19032,13 @@
         <v>3.5</v>
       </c>
       <c r="G232" t="n">
-        <v>4.25975780506607</v>
+        <v>3.64385699105931</v>
       </c>
       <c r="H232" t="n">
-        <v>10.5946483782845</v>
+        <v>10.0152515156881</v>
       </c>
       <c r="I232" t="n">
-        <v>9.4765</v>
+        <v>8.12073</v>
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
@@ -19046,10 +19046,10 @@
         <v>3.5</v>
       </c>
       <c r="M232" t="n">
-        <v>7.75923</v>
+        <v>5.69603</v>
       </c>
       <c r="N232" t="n">
-        <v>8.61769</v>
+        <v>6.6286</v>
       </c>
       <c r="O232" t="n">
         <v>1856406</v>
